--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3563625.864570219</v>
+        <v>3563110.234955862</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2104816.956126887</v>
+        <v>2104816.95612689</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>826053.9034197846</v>
+        <v>826053.9034197836</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6575675.307276328</v>
+        <v>6575675.307276329</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>76.47341699539027</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>74.85917212134225</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -724,10 +724,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.0363847091458</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>127.7349619690957</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -907,13 +907,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>34.38928046646706</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>179.5949879355968</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>76.7408656320216</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>214.6483185807187</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>318.1215342861364</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>393.3340456118752</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>9.121020965261817</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.30123682227985</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1378,10 +1378,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>74.58760430452946</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1390,7 +1390,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1429,16 +1429,16 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>64.7706015339445</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1587,13 +1587,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>118.664792036097</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1615,10 +1615,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
-        <v>114.7007957704191</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1669,13 +1669,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1824,13 +1824,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1864,7 +1864,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875392</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2101,7 +2101,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875392</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875433</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
         <v>90.90562710059311</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>216.7744478510048</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2572,10 +2572,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>275.1075223579099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.0119495450725</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2769,16 +2769,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.593129366202</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>226.9808762361912</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2809,10 +2809,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>159.2039277954309</v>
@@ -2854,13 +2854,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>48.25657690305211</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.593129366202</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C32" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E32" t="n">
         <v>268.1977203190365</v>
@@ -3046,10 +3046,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U32" t="n">
         <v>122.835232954163</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978638</v>
@@ -3249,13 +3249,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X34" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799144</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412923</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135903</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875322</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059299</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541639</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006892</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880377</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908618</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509259</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380501</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357228</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596442</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253646</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370839</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369162</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792622</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593858</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3520,10 +3520,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3571,7 +3571,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322.2802739911201</v>
+        <v>322.2802739911199</v>
       </c>
       <c r="C41" t="n">
-        <v>315.0342222189359</v>
+        <v>315.0342222189357</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.377193232336</v>
       </c>
       <c r="E41" t="n">
-        <v>324.3481653714581</v>
+        <v>324.3481653714579</v>
       </c>
       <c r="F41" t="n">
-        <v>338.5159698221592</v>
+        <v>338.515969822159</v>
       </c>
       <c r="G41" t="n">
-        <v>334.8216036937141</v>
+        <v>334.8216036937139</v>
       </c>
       <c r="H41" t="n">
-        <v>67.5769550055527</v>
+        <v>246.6326956660113</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>62.74422147529685</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.63889524519713</v>
+        <v>90.63889524519698</v>
       </c>
       <c r="T41" t="n">
-        <v>147.0560721530147</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>178.9856780065846</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>264.476216940354</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>41.34081173186311</v>
       </c>
       <c r="X41" t="n">
-        <v>311.3485547531109</v>
+        <v>311.3485547531108</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.3162777254421</v>
+        <v>318.3162777254419</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.1464142412255</v>
+        <v>27.6484693116699</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>94.29354249150771</v>
       </c>
       <c r="D43" t="n">
-        <v>79.86725770334759</v>
+        <v>79.86725770334743</v>
       </c>
       <c r="E43" t="n">
-        <v>79.7936997562267</v>
+        <v>79.79369975622654</v>
       </c>
       <c r="F43" t="n">
-        <v>81.54315117599397</v>
+        <v>81.54315117599381</v>
       </c>
       <c r="G43" t="n">
-        <v>92.3619890983861</v>
+        <v>92.36198909838595</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>79.71424126495799</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.50983882690771</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>159.1523370502854</v>
+        <v>159.1523370502852</v>
       </c>
       <c r="U43" t="n">
-        <v>208.3748795773553</v>
+        <v>208.3748795773551</v>
       </c>
       <c r="V43" t="n">
-        <v>189.1100274642212</v>
+        <v>189.110027464221</v>
       </c>
       <c r="W43" t="n">
-        <v>206.2875737849714</v>
+        <v>206.2875737849712</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6714163083603</v>
+        <v>146.6714163083601</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>322.2802739911199</v>
       </c>
       <c r="C44" t="n">
-        <v>113.3740981491739</v>
+        <v>315.0342222189357</v>
       </c>
       <c r="D44" t="n">
-        <v>307.3771932323361</v>
+        <v>307.377193232336</v>
       </c>
       <c r="E44" t="n">
-        <v>324.3481653714581</v>
+        <v>324.3481653714579</v>
       </c>
       <c r="F44" t="n">
-        <v>338.5159698221592</v>
+        <v>338.515969822159</v>
       </c>
       <c r="G44" t="n">
-        <v>334.8216036937141</v>
+        <v>334.8216036937139</v>
       </c>
       <c r="H44" t="n">
-        <v>246.6326956660114</v>
+        <v>57.63820845493877</v>
       </c>
       <c r="I44" t="n">
-        <v>62.74422147529701</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.63889524519713</v>
+        <v>90.63889524519699</v>
       </c>
       <c r="T44" t="n">
-        <v>147.0560721530147</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>178.9856780065846</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>264.476216940354</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>293.0795204182326</v>
+        <v>293.0795204182324</v>
       </c>
       <c r="X44" t="n">
-        <v>311.3485547531109</v>
+        <v>311.3485547531108</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>318.3162777254419</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.1464142412255</v>
+        <v>109.1464142412253</v>
       </c>
       <c r="C46" t="n">
-        <v>36.65768279064768</v>
+        <v>94.29354249150772</v>
       </c>
       <c r="D46" t="n">
-        <v>79.86725770334759</v>
+        <v>67.22497561542636</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>79.79369975622656</v>
       </c>
       <c r="F46" t="n">
-        <v>81.54315117599397</v>
+        <v>81.54315117599383</v>
       </c>
       <c r="G46" t="n">
-        <v>92.3619890983861</v>
+        <v>92.36198909838596</v>
       </c>
       <c r="H46" t="n">
-        <v>79.71424126495815</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>57.55395684613008</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>159.1523370502853</v>
       </c>
       <c r="U46" t="n">
-        <v>208.3748795773553</v>
+        <v>208.3748795773551</v>
       </c>
       <c r="V46" t="n">
-        <v>189.1100274642212</v>
+        <v>189.110027464221</v>
       </c>
       <c r="W46" t="n">
-        <v>206.2875737849714</v>
+        <v>206.2875737849712</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5299947316839</v>
+        <v>157.5299947316838</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6714163083603</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.4558735466646</v>
+        <v>914.3989601866567</v>
       </c>
       <c r="C2" t="n">
-        <v>687.4558735466646</v>
+        <v>521.2234586895872</v>
       </c>
       <c r="D2" t="n">
-        <v>610.2099977937452</v>
+        <v>135.782329906255</v>
       </c>
       <c r="E2" t="n">
-        <v>207.6264729102897</v>
+        <v>135.782329906255</v>
       </c>
       <c r="F2" t="n">
-        <v>194.7724384806716</v>
+        <v>122.9282954766368</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M2" t="n">
-        <v>1304.804169167248</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1832.61545280471</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
         <v>1832.61545280471</v>
@@ -4357,25 +4357,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2104.154988922119</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>1848.402259356717</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V2" t="n">
-        <v>1848.402259356717</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W2" t="n">
-        <v>1477.403224325005</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X2" t="n">
-        <v>1087.950619258062</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="Y2" t="n">
-        <v>1087.950619258062</v>
+        <v>914.3989601866567</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>140.0776713099957</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>140.0776713099957</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N3" t="n">
         <v>1209.141762214911</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V4" t="n">
-        <v>682.7806474639203</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="W4" t="n">
-        <v>399.450245395098</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="X4" t="n">
-        <v>270.4250312849002</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.657193557198</v>
+        <v>1965.153759365783</v>
       </c>
       <c r="C5" t="n">
-        <v>1745.657193557198</v>
+        <v>1571.978257868714</v>
       </c>
       <c r="D5" t="n">
-        <v>1360.216064773866</v>
+        <v>1186.537129085382</v>
       </c>
       <c r="E5" t="n">
-        <v>957.6325398904103</v>
+        <v>783.9536042019261</v>
       </c>
       <c r="F5" t="n">
-        <v>922.895892954585</v>
+        <v>367.0591657319038</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
         <v>185.6500870090788</v>
@@ -4576,13 +4576,13 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1392.575851912381</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.61545280471</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P5" t="n">
         <v>2180.802944936232</v>
@@ -4597,22 +4597,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T5" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U5" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V5" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W5" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X5" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y5" t="n">
-        <v>1745.657193557198</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>850.6182020620834</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N6" t="n">
         <v>1209.141762214911</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2102.924460494948</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="C7" t="n">
-        <v>1932.719342560937</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="D7" t="n">
-        <v>1777.086229463452</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="E7" t="n">
-        <v>1621.527417322655</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="F7" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G7" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H7" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N7" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O7" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P7" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q7" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>2288.132479186249</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>2288.132479186249</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>2288.132479186249</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V7" t="n">
-        <v>2288.132479186249</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="W7" t="n">
-        <v>2288.132479186249</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="X7" t="n">
-        <v>2288.132479186249</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="Y7" t="n">
-        <v>2288.132479186249</v>
+        <v>210.7856656383638</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1178.648892786852</v>
+        <v>1402.149495227435</v>
       </c>
       <c r="C8" t="n">
-        <v>857.3140096695423</v>
+        <v>1008.973993730366</v>
       </c>
       <c r="D8" t="n">
-        <v>471.8728808862101</v>
+        <v>1008.973993730366</v>
       </c>
       <c r="E8" t="n">
-        <v>69.28935600275456</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4813,10 +4813,10 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1044.265390756362</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1572.076674393824</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4834,22 +4834,22 @@
         <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.634347577648</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.634347577648</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.634347577648</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X8" t="n">
-        <v>1975.634347577648</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.143638498249</v>
+        <v>1802.644240938832</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>623.643757208308</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>247.8963582094524</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>120.3445224472808</v>
+        <v>939.5468401529326</v>
       </c>
       <c r="W10" t="n">
-        <v>120.3445224472808</v>
+        <v>656.2164380841103</v>
       </c>
       <c r="X10" t="n">
-        <v>120.3445224472808</v>
+        <v>656.2164380841103</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>433.1043769007537</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1638.910046033471</v>
+        <v>1549.258117997884</v>
       </c>
       <c r="C11" t="n">
-        <v>1340.675225823589</v>
+        <v>1251.023297788003</v>
       </c>
       <c r="D11" t="n">
-        <v>1050.174778327445</v>
+        <v>960.522850291859</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="F11" t="n">
         <v>652.8800066955919</v>
@@ -5068,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2816.584415774169</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2816.584415774169</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2540.526062029644</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2246.01413824989</v>
+        <v>2156.362210214303</v>
       </c>
       <c r="Y11" t="n">
-        <v>1944.464110457679</v>
+        <v>1854.812182422093</v>
       </c>
     </row>
     <row r="12">
@@ -5129,10 +5129,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5205,13 +5205,13 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
@@ -5232,19 +5232,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1621.721072044627</v>
+        <v>1505.861682377537</v>
       </c>
       <c r="C14" t="n">
-        <v>1323.486251834746</v>
+        <v>1207.626862167656</v>
       </c>
       <c r="D14" t="n">
-        <v>1032.985804338602</v>
+        <v>917.1264146715121</v>
       </c>
       <c r="E14" t="n">
-        <v>725.342960742335</v>
+        <v>609.483571075245</v>
       </c>
       <c r="F14" t="n">
         <v>609.483571075245</v>
@@ -5323,7 +5323,7 @@
         <v>1927.275136468836</v>
       </c>
       <c r="Y14" t="n">
-        <v>1927.275136468836</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5357,16 +5357,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
         <v>1458.313011372373</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
         <v>417.8199303082779</v>
@@ -5421,7 +5421,7 @@
         <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
         <v>234.1241141445331</v>
@@ -5454,7 +5454,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5469,19 +5469,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5551,10 +5551,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5673,19 +5673,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296507</v>
@@ -5746,25 +5746,25 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5773,13 +5773,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C21" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D21" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H21" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.359996292367</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>1590.92608219068</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1590.92608219068</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1949.449642343508</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O21" t="n">
-        <v>2465.969924934489</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
-        <v>3105.956385205777</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R21" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S21" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T21" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U21" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V21" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W21" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X21" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y21" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="22">
@@ -5904,34 +5904,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5971,19 +5971,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5992,7 +5992,7 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6013,7 +6013,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6034,7 +6034,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6141,31 +6141,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222413</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1343.834685824516</v>
+        <v>1782.53312032284</v>
       </c>
       <c r="C26" t="n">
-        <v>1343.834685824516</v>
+        <v>1484.298300112958</v>
       </c>
       <c r="D26" t="n">
-        <v>1053.334238328372</v>
+        <v>1193.797852616814</v>
       </c>
       <c r="E26" t="n">
-        <v>745.6913947321048</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F26" t="n">
-        <v>423.7376375492709</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G26" t="n">
-        <v>105.5155633244624</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L26" t="n">
         <v>1059.071548358934</v>
@@ -6244,7 +6244,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P26" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q26" t="n">
         <v>3105.956385205776</v>
@@ -6259,19 +6259,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U26" t="n">
-        <v>2745.011542002408</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V26" t="n">
-        <v>2497.845413993115</v>
+        <v>2658.657462271327</v>
       </c>
       <c r="W26" t="n">
-        <v>2221.78706024859</v>
+        <v>2382.599108526803</v>
       </c>
       <c r="X26" t="n">
-        <v>1927.275136468836</v>
+        <v>2088.087184747048</v>
       </c>
       <c r="Y26" t="n">
-        <v>1649.388750248725</v>
+        <v>2088.087184747048</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1920.837450676059</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C28" t="n">
-        <v>1845.573014029236</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D28" t="n">
-        <v>1784.880582218939</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E28" t="n">
-        <v>1724.262451365331</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F28" t="n">
-        <v>1661.877197865492</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G28" t="n">
-        <v>1588.563825252126</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H28" t="n">
-        <v>1528.025955500809</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
-        <v>1489.872211425075</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J28" t="n">
-        <v>1553.149830557211</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
-        <v>1728.036233396726</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>1985.215235000099</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M28" t="n">
-        <v>2264.558175067936</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N28" t="n">
-        <v>2540.799170828719</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O28" t="n">
-        <v>2796.5552996</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P28" t="n">
-        <v>3009.482827106152</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R28" t="n">
-        <v>3076.996077125541</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>2969.120674595279</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T28" t="n">
-        <v>2828.342304050701</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U28" t="n">
-        <v>2637.84419357979</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V28" t="n">
-        <v>2466.805529687803</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>2278.415808906169</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X28" t="n">
-        <v>2139.27616797634</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y28" t="n">
-        <v>2011.104788080172</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1572.977054970837</v>
+        <v>1520.303839177572</v>
       </c>
       <c r="C29" t="n">
-        <v>1572.977054970837</v>
+        <v>1222.069018967691</v>
       </c>
       <c r="D29" t="n">
-        <v>1282.476607474693</v>
+        <v>931.568571471547</v>
       </c>
       <c r="E29" t="n">
-        <v>974.8337638784258</v>
+        <v>702.2949591117579</v>
       </c>
       <c r="F29" t="n">
-        <v>652.8800066955919</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G29" t="n">
-        <v>334.6579324707834</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M29" t="n">
         <v>1605.072448403515</v>
@@ -6481,7 +6481,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
@@ -6490,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2905.82359028062</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>2745.011542002408</v>
+        <v>2945.144336927563</v>
       </c>
       <c r="V29" t="n">
-        <v>2497.845413993115</v>
+        <v>2697.97820891827</v>
       </c>
       <c r="W29" t="n">
-        <v>2221.78706024859</v>
+        <v>2421.919855173746</v>
       </c>
       <c r="X29" t="n">
-        <v>1927.275136468836</v>
+        <v>2127.407931393991</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.531119395046</v>
+        <v>1825.85790360178</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P30" t="n">
         <v>2380.454662679751</v>
@@ -6600,25 +6600,25 @@
         <v>493.0843669551003</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979811</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E31" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F31" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G31" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H31" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J31" t="n">
         <v>125.3967468362513</v>
@@ -6627,19 +6627,19 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L31" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M31" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N31" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P31" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q31" t="n">
         <v>1678.203301484817</v>
@@ -6654,19 +6654,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U31" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V31" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="32">
@@ -6685,25 +6685,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L32" t="n">
         <v>1059.071548358934</v>
@@ -6718,7 +6718,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
@@ -6727,22 +6727,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V32" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
         <v>1882.877496443165</v>
@@ -6776,28 +6776,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K34" t="n">
         <v>143.9541688140574</v>
@@ -6870,16 +6870,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>677.5630210573304</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O34" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P34" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q34" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R34" t="n">
         <v>1098.20216247628</v>
@@ -6888,22 +6888,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U34" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803434</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924213</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6955,31 +6955,31 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7013,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885586</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369564</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218797</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634908</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588724</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072649</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462905</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1090.581152532861</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918791</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161887</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194215</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330077</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983994</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974513</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F38" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924216</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7192,31 +7192,31 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.359996292367</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>1590.92608219068</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M39" t="n">
-        <v>1590.92608219068</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N39" t="n">
-        <v>1949.449642343508</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O39" t="n">
-        <v>2465.969924934489</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="P39" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205777</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229927</v>
+        <v>67.69877031229836</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>278.5901810446688</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>442.7178209184686</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1456.358436907974</v>
+        <v>2011.082836269682</v>
       </c>
       <c r="C41" t="n">
-        <v>1138.142050828241</v>
+        <v>1692.866450189949</v>
       </c>
       <c r="D41" t="n">
-        <v>1138.142050828241</v>
+        <v>1382.384436823953</v>
       </c>
       <c r="E41" t="n">
-        <v>810.5176413621216</v>
+        <v>1054.760027357834</v>
       </c>
       <c r="F41" t="n">
-        <v>468.5823183094355</v>
+        <v>712.8247043051479</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3786782147748</v>
+        <v>374.6210642104874</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>125.4971291943144</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7441,22 +7441,22 @@
         <v>3014.401945564163</v>
       </c>
       <c r="T41" t="n">
-        <v>2865.860458540916</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="U41" t="n">
-        <v>2685.06684439285</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="V41" t="n">
-        <v>2417.919150513705</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="W41" t="n">
-        <v>2417.919150513705</v>
+        <v>2972.643549875412</v>
       </c>
       <c r="X41" t="n">
-        <v>2103.425660864098</v>
+        <v>2658.150060225805</v>
       </c>
       <c r="Y41" t="n">
-        <v>1781.894067202035</v>
+        <v>2336.618466563742</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7499,7 +7499,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1983.479125353931</v>
+        <v>574.8200180984786</v>
       </c>
       <c r="C43" t="n">
-        <v>1983.479125353931</v>
+        <v>479.5740155818042</v>
       </c>
       <c r="D43" t="n">
-        <v>1902.805127673782</v>
+        <v>398.9000179016552</v>
       </c>
       <c r="E43" t="n">
-        <v>1822.205430950321</v>
+        <v>318.3003211781941</v>
       </c>
       <c r="F43" t="n">
-        <v>1739.83861158063</v>
+        <v>235.9335018085034</v>
       </c>
       <c r="G43" t="n">
-        <v>1646.543673097412</v>
+        <v>142.6385633252852</v>
       </c>
       <c r="H43" t="n">
-        <v>1646.543673097412</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I43" t="n">
-        <v>1646.543673097412</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>1690.237359520505</v>
+        <v>105.8128141272094</v>
       </c>
       <c r="K43" t="n">
-        <v>1845.539829650978</v>
+        <v>261.1152842576826</v>
       </c>
       <c r="L43" t="n">
-        <v>2083.134898545309</v>
+        <v>498.7103531520137</v>
       </c>
       <c r="M43" t="n">
-        <v>2342.893905904104</v>
+        <v>758.4693605108091</v>
       </c>
       <c r="N43" t="n">
-        <v>2599.550968955845</v>
+        <v>1015.12642356255</v>
       </c>
       <c r="O43" t="n">
-        <v>2835.723165018084</v>
+        <v>1251.298619624789</v>
       </c>
       <c r="P43" t="n">
-        <v>3029.066759815194</v>
+        <v>1444.642214421899</v>
       </c>
       <c r="Q43" t="n">
-        <v>3105.956385205776</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="R43" t="n">
-        <v>3105.956385205776</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="S43" t="n">
-        <v>3012.512103562435</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="T43" t="n">
-        <v>2851.752167148005</v>
+        <v>1360.771903398052</v>
       </c>
       <c r="U43" t="n">
-        <v>2641.272490807242</v>
+        <v>1150.292227057289</v>
       </c>
       <c r="V43" t="n">
-        <v>2450.252261045403</v>
+        <v>959.2719972954495</v>
       </c>
       <c r="W43" t="n">
-        <v>2241.880974393916</v>
+        <v>750.9007106439635</v>
       </c>
       <c r="X43" t="n">
-        <v>2241.880974393916</v>
+        <v>750.9007106439635</v>
       </c>
       <c r="Y43" t="n">
-        <v>2093.728028627896</v>
+        <v>602.7477648779432</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1807.385741249721</v>
+        <v>1756.801312344056</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.86645018995</v>
+        <v>1438.584926264323</v>
       </c>
       <c r="D44" t="n">
-        <v>1382.384436823954</v>
+        <v>1128.102912898327</v>
       </c>
       <c r="E44" t="n">
-        <v>1054.760027357834</v>
+        <v>800.4785034322082</v>
       </c>
       <c r="F44" t="n">
-        <v>712.8247043051483</v>
+        <v>458.5431803795223</v>
       </c>
       <c r="G44" t="n">
-        <v>374.6210642104877</v>
+        <v>120.3395402848618</v>
       </c>
       <c r="H44" t="n">
-        <v>125.4971291943145</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7678,22 +7678,22 @@
         <v>3014.401945564163</v>
       </c>
       <c r="T44" t="n">
-        <v>2865.860458540916</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="U44" t="n">
-        <v>2685.06684439285</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="V44" t="n">
-        <v>2417.919150513705</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="W44" t="n">
-        <v>2121.879230899328</v>
+        <v>2718.362025949787</v>
       </c>
       <c r="X44" t="n">
-        <v>1807.385741249721</v>
+        <v>2403.86853630018</v>
       </c>
       <c r="Y44" t="n">
-        <v>1807.385741249721</v>
+        <v>2082.336942638117</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>1220.474978512094</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>1704.041064410407</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1704.041064410407</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1949.449642343508</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2465.969924934489</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2078.562136612021</v>
+        <v>481.530600570318</v>
       </c>
       <c r="C46" t="n">
-        <v>2041.534174197226</v>
+        <v>386.2845980536435</v>
       </c>
       <c r="D46" t="n">
-        <v>1960.860176517077</v>
+        <v>318.3805822804856</v>
       </c>
       <c r="E46" t="n">
-        <v>1960.860176517077</v>
+        <v>237.7808855570244</v>
       </c>
       <c r="F46" t="n">
-        <v>1878.493357147386</v>
+        <v>155.4140661873337</v>
       </c>
       <c r="G46" t="n">
-        <v>1785.198418664167</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H46" t="n">
-        <v>1704.678983042998</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I46" t="n">
-        <v>1646.543673097412</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>1690.237359520505</v>
+        <v>105.8128141272094</v>
       </c>
       <c r="K46" t="n">
-        <v>1845.539829650978</v>
+        <v>261.1152842576826</v>
       </c>
       <c r="L46" t="n">
-        <v>2083.134898545309</v>
+        <v>498.7103531520137</v>
       </c>
       <c r="M46" t="n">
-        <v>2342.893905904104</v>
+        <v>758.4693605108091</v>
       </c>
       <c r="N46" t="n">
-        <v>2599.550968955845</v>
+        <v>1015.12642356255</v>
       </c>
       <c r="O46" t="n">
-        <v>2835.723165018084</v>
+        <v>1251.298619624789</v>
       </c>
       <c r="P46" t="n">
-        <v>3029.066759815194</v>
+        <v>1444.642214421899</v>
       </c>
       <c r="Q46" t="n">
-        <v>3105.956385205776</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="R46" t="n">
-        <v>3105.956385205776</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="S46" t="n">
-        <v>3105.956385205776</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="T46" t="n">
-        <v>3105.956385205776</v>
+        <v>1360.771903398052</v>
       </c>
       <c r="U46" t="n">
-        <v>2895.476708865013</v>
+        <v>1150.292227057289</v>
       </c>
       <c r="V46" t="n">
-        <v>2704.456479103173</v>
+        <v>959.2719972954495</v>
       </c>
       <c r="W46" t="n">
-        <v>2496.085192451687</v>
+        <v>750.9007106439635</v>
       </c>
       <c r="X46" t="n">
-        <v>2336.963985652007</v>
+        <v>591.779503844283</v>
       </c>
       <c r="Y46" t="n">
-        <v>2188.811039885986</v>
+        <v>591.779503844283</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>412.8955348410459</v>
+        <v>612.8252961895594</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8057,10 +8057,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>176.1461757257091</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8069,7 +8069,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8224,16 +8224,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>213.6604073397399</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8303,10 +8303,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N6" t="n">
-        <v>447.5171231095482</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8461,13 +8461,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>412.734320667415</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8537,7 +8537,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>234.9862648617782</v>
+        <v>234.9862648617774</v>
       </c>
       <c r="M9" t="n">
         <v>92.38712204931191</v>
@@ -8777,13 +8777,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -8947,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>351.8313913012159</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9242,16 +9242,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>438.5811111539143</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9263,7 +9263,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>177.2623988786017</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9488,16 +9488,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095484</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,10 +10190,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10205,10 +10205,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10606,7 +10606,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294519</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>351.8313913012159</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095484</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>458.3628540128008</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>331.211385429451</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11147,10 +11147,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11387,7 +11387,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23266,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>229.978810855775</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.7962030080128</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>183.8337317438695</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>204.0334238405864</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>87.79196730929962</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>23.42700515637858</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>77.58553892411319</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>250.2779506112363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>307.3771932323361</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>179.0557406604588</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>62.74422147529701</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>147.0560721530145</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>178.9856780065844</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>264.4762169403538</v>
       </c>
       <c r="W41" t="n">
-        <v>293.0795204182326</v>
+        <v>251.7387086863693</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>81.4979449295554</v>
       </c>
       <c r="C43" t="n">
-        <v>94.29354249150786</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>79.71424126495815</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>57.55395684613008</v>
+        <v>57.55395684612992</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.452455210586</v>
+        <v>48.45245521058584</v>
       </c>
       <c r="S43" t="n">
-        <v>34.0685598892056</v>
+        <v>126.5783987161132</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5299947316839</v>
+        <v>157.5299947316838</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322.2802739911201</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>201.660124069762</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>188.9944872110725</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>62.74422147529687</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>147.0560721530146</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>178.9856780065844</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>264.4762169403538</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.3162777254421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.63585970086019</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>12.64228208792109</v>
       </c>
       <c r="E46" t="n">
-        <v>79.7936997562267</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>79.71424126495801</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>57.55395684612994</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.452455210586</v>
+        <v>48.45245521058585</v>
       </c>
       <c r="S46" t="n">
-        <v>126.5783987161133</v>
+        <v>126.5783987161132</v>
       </c>
       <c r="T46" t="n">
-        <v>159.1523370502854</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>146.6714163083601</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>551184.5663023521</v>
+        <v>551184.566302352</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>524107.5265863872</v>
+        <v>524107.5265863875</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>524107.5265863872</v>
+        <v>524107.5265863875</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>703295.4945640914</v>
+        <v>703295.4945640912</v>
       </c>
       <c r="C2" t="n">
         <v>703295.4945640913</v>
       </c>
       <c r="D2" t="n">
-        <v>703295.4945640913</v>
+        <v>703295.4945640914</v>
       </c>
       <c r="E2" t="n">
         <v>660956.8784646298</v>
       </c>
       <c r="F2" t="n">
-        <v>660956.8784646296</v>
+        <v>660956.8784646298</v>
       </c>
       <c r="G2" t="n">
-        <v>703295.4945640907</v>
+        <v>703295.4945640919</v>
       </c>
       <c r="H2" t="n">
         <v>703295.4945640919</v>
       </c>
       <c r="I2" t="n">
-        <v>703295.4945640911</v>
+        <v>703295.4945640913</v>
       </c>
       <c r="J2" t="n">
-        <v>660956.8784646285</v>
+        <v>660956.8784646289</v>
       </c>
       <c r="K2" t="n">
-        <v>660956.8784646295</v>
+        <v>660956.8784646289</v>
       </c>
       <c r="L2" t="n">
-        <v>703295.494564091</v>
+        <v>703295.4945640914</v>
       </c>
       <c r="M2" t="n">
-        <v>703295.4945640917</v>
+        <v>703295.4945640914</v>
       </c>
       <c r="N2" t="n">
-        <v>703295.4945640909</v>
+        <v>703295.4945640913</v>
       </c>
       <c r="O2" t="n">
-        <v>626892.2155961576</v>
+        <v>626892.2155961578</v>
       </c>
       <c r="P2" t="n">
-        <v>626892.2155961576</v>
+        <v>626892.2155961577</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602869</v>
+        <v>58189.9117460287</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989169</v>
+        <v>46121.92123989173</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1177.707664501557</v>
+        <v>1177.707664501639</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26444,22 +26444,22 @@
         <v>123047.6773561512</v>
       </c>
       <c r="K4" t="n">
-        <v>123047.6773561512</v>
+        <v>123047.6773561513</v>
       </c>
       <c r="L4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="M4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="N4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="O4" t="n">
-        <v>103057.3142718669</v>
+        <v>103057.314271867</v>
       </c>
       <c r="P4" t="n">
-        <v>103057.3142718669</v>
+        <v>103057.314271867</v>
       </c>
     </row>
     <row r="5">
@@ -26487,10 +26487,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>55112.2895089091</v>
@@ -26499,19 +26499,19 @@
         <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
+        <v>58169.76931551965</v>
+      </c>
+      <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="M5" t="n">
-        <v>58169.76931551967</v>
-      </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>53449.25755040763</v>
+        <v>53449.25755040764</v>
       </c>
       <c r="P5" t="n">
-        <v>53449.25755040763</v>
+        <v>53449.25755040764</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258276.2197310146</v>
+        <v>258276.2197310144</v>
       </c>
       <c r="C6" t="n">
+        <v>456472.0257227594</v>
+      </c>
+      <c r="D6" t="n">
         <v>456472.0257227595</v>
       </c>
-      <c r="D6" t="n">
-        <v>456472.0257227594</v>
-      </c>
       <c r="E6" t="n">
-        <v>352343.9804618573</v>
+        <v>352235.4199077561</v>
       </c>
       <c r="F6" t="n">
-        <v>482796.9115995693</v>
+        <v>482688.3510454682</v>
       </c>
       <c r="G6" t="n">
-        <v>468378.7713759236</v>
+        <v>468378.7713759246</v>
       </c>
       <c r="H6" t="n">
         <v>497473.727248939</v>
       </c>
       <c r="I6" t="n">
-        <v>497473.7272489382</v>
+        <v>497473.7272489385</v>
       </c>
       <c r="J6" t="n">
-        <v>281959.413527526</v>
+        <v>281850.8529734252</v>
       </c>
       <c r="K6" t="n">
-        <v>482796.9115995692</v>
+        <v>482688.3510454674</v>
       </c>
       <c r="L6" t="n">
-        <v>439283.8155029094</v>
+        <v>439283.8155029099</v>
       </c>
       <c r="M6" t="n">
-        <v>451351.8060090471</v>
+        <v>451351.8060090468</v>
       </c>
       <c r="N6" t="n">
-        <v>497473.727248938</v>
+        <v>497473.7272489385</v>
       </c>
       <c r="O6" t="n">
-        <v>469207.9361093816</v>
+        <v>469012.030265874</v>
       </c>
       <c r="P6" t="n">
-        <v>470385.6437738831</v>
+        <v>470189.7379303755</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26709,25 +26709,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="P2" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
     </row>
     <row r="3">
@@ -26807,31 +26807,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="K4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26934,19 +26934,19 @@
         <v>57.62257963304852</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253586</v>
+        <v>72.73738968253588</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.472134580626946</v>
+        <v>1.472134580627048</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321491</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>57.62257963304852</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>305.1133005001087</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>334.1719558355346</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>130.3195537952425</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>104.004557025751</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>378.3362136188549</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>229.4361400212801</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27684,7 +27684,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27794,10 +27794,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>124.0470573472545</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>48.67123314666534</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>71.12221219596233</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.223644022745702</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>254.1985307621222</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.5797037492432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431658</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28745,22 +28745,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28982,31 +28982,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>28.01250026485255</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29219,28 +29219,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668788</v>
       </c>
       <c r="K25" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29942,10 +29942,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O34" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29954,7 +29954,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="36">
@@ -30143,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>28.01250026485259</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30188,31 +30188,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>128.297982108276</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="38">
@@ -30404,10 +30404,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.7104901066881</v>
+        <v>35.7104901066872</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="D41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="E41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="F41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="G41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="H41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="I41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="T41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="U41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="V41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="W41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="X41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="C43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="D43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="E43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="G43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="H43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="I43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="J43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="K43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="L43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="M43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="N43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="O43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="P43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="R43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="S43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="T43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="U43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="V43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="W43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="X43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316296</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="C44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="D44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="E44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="F44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="G44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="H44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="I44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="T44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="U44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="V44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="W44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="X44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="C46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="D46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="E46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="F46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="G46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="H46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="I46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="J46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="K46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="L46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="M46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="N46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="O46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="P46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="R46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="S46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="T46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="V46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="W46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="X46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.20952426316281</v>
+        <v>74.20952426316295</v>
       </c>
     </row>
   </sheetData>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>263.1704832433186</v>
+        <v>463.1002445918322</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.70171839237574</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34944,16 +34944,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35023,10 +35023,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N6" t="n">
-        <v>362.1450102553815</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35181,13 +35181,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>263.1704832433186</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35257,7 +35257,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>144.92591800486</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35588,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>259.444269251904</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
@@ -35819,13 +35819,13 @@
         <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P16" t="n">
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>346.1939891046024</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36056,7 +36056,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36208,16 +36208,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553817</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>213.0525346398113</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36457,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K25" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36536,7 +36536,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36925,10 +36925,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37238,10 +37238,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O34" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
@@ -37250,7 +37250,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>259.444269251904</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37484,10 +37484,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184284</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>7.697989841835692</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553817</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>371.2794891934861</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.63600263452903</v>
+        <v>5.636002634528126</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37718,7 +37718,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110588</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.13503679100373</v>
+        <v>44.13503679100389</v>
       </c>
       <c r="K43" t="n">
-        <v>156.8711819499728</v>
+        <v>156.8711819499729</v>
       </c>
       <c r="L43" t="n">
-        <v>239.9950190851828</v>
+        <v>239.9950190851829</v>
       </c>
       <c r="M43" t="n">
-        <v>262.3828357159547</v>
+        <v>262.3828357159549</v>
       </c>
       <c r="N43" t="n">
-        <v>259.2495586381216</v>
+        <v>259.2495586381218</v>
       </c>
       <c r="O43" t="n">
-        <v>238.5577738002416</v>
+        <v>238.5577738002418</v>
       </c>
       <c r="P43" t="n">
-        <v>195.296560401121</v>
+        <v>195.2965604011211</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.66628827331529</v>
+        <v>77.66628827331544</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.13503679100373</v>
+        <v>44.13503679100388</v>
       </c>
       <c r="K46" t="n">
-        <v>156.8711819499728</v>
+        <v>156.8711819499729</v>
       </c>
       <c r="L46" t="n">
-        <v>239.9950190851828</v>
+        <v>239.9950190851829</v>
       </c>
       <c r="M46" t="n">
-        <v>262.3828357159547</v>
+        <v>262.3828357159549</v>
       </c>
       <c r="N46" t="n">
-        <v>259.2495586381216</v>
+        <v>259.2495586381218</v>
       </c>
       <c r="O46" t="n">
-        <v>238.5577738002416</v>
+        <v>238.5577738002418</v>
       </c>
       <c r="P46" t="n">
-        <v>195.296560401121</v>
+        <v>195.2965604011211</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.66628827331529</v>
+        <v>77.66628827331543</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
